--- a/orders.xlsx
+++ b/orders.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,85 +479,105 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
+          <t>Ship-to Name</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>Ship-to Address</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>Ship-to Address 2</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>Ship-to City</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
           <t>Order Date</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="K4" s="1" t="inlineStr">
         <is>
           <t>Due Date</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
+      <c r="L4" s="1" t="inlineStr">
         <is>
           <t>Location Code</t>
         </is>
       </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="M4" s="1" t="inlineStr">
         <is>
           <t>Customer Posting Group</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="N4" s="1" t="inlineStr">
         <is>
           <t>Customer Price Group</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="O4" s="1" t="inlineStr">
         <is>
           <t>Gen. Bus. Posting Group</t>
         </is>
       </c>
-      <c r="L4" s="1" t="inlineStr">
+      <c r="P4" s="1" t="inlineStr">
         <is>
           <t>Sell-to Customer Name</t>
         </is>
       </c>
-      <c r="M4" s="1" t="inlineStr">
+      <c r="Q4" s="1" t="inlineStr">
         <is>
           <t>Sell-to Customer Name 2</t>
         </is>
       </c>
-      <c r="N4" s="1" t="inlineStr">
+      <c r="R4" s="1" t="inlineStr">
         <is>
           <t>Sell-to Address</t>
         </is>
       </c>
-      <c r="O4" s="1" t="inlineStr">
+      <c r="S4" s="1" t="inlineStr">
         <is>
           <t>Sell-to Address 2</t>
         </is>
       </c>
-      <c r="P4" s="1" t="inlineStr">
+      <c r="T4" s="1" t="inlineStr">
         <is>
           <t>Sell-to City</t>
         </is>
       </c>
-      <c r="Q4" s="1" t="inlineStr">
+      <c r="U4" s="1" t="inlineStr">
         <is>
           <t>Sell-to ZIP code</t>
         </is>
       </c>
-      <c r="R4" s="1" t="inlineStr">
+      <c r="V4" s="1" t="inlineStr">
         <is>
           <t>External Document No.</t>
         </is>
       </c>
-      <c r="S4" s="1" t="inlineStr">
+      <c r="W4" s="1" t="inlineStr">
         <is>
           <t>Delivery Info</t>
         </is>
       </c>
-      <c r="T4" s="1" t="inlineStr">
+      <c r="X4" s="1" t="inlineStr">
         <is>
           <t>Delivery Exception</t>
         </is>
       </c>
-      <c r="U4" s="1" t="inlineStr">
+      <c r="Y4" s="1" t="inlineStr">
         <is>
           <t>Route</t>
         </is>
       </c>
-      <c r="V4" s="1" t="inlineStr">
+      <c r="Z4" s="1" t="inlineStr">
         <is>
           <t>Store Delivery Location</t>
         </is>
@@ -591,69 +611,85 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>WHOLE FOODS WEEHAWKEN</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1400 WATERFRONT TERRACE</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Weehawken</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>2023-02-03</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>WHOLE FOODS</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>WHOLE FOOD</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>ALL</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>WHOLE FOODS WEEHAWKEN</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>1400 WATERFRONT TERRACE</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
         <is>
           <t>Weehawken</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>07086-</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>122886246</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>04:00 AM - 02:00 PM</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr">
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>CLOSTER MONDAY</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -683,69 +719,85 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>WHOLE FOODS MANHATTAN WEST</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>450 WEST 33RD ST</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>2023-02-08</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>WHOLE FOODS</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>WHOLE FOOD</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>ALL</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>WHOLE FOODS MANHATTAN WEST</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>450 WEST 33RD ST</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>10001</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>123049709</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>06:00 AM - 02:00 PM</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr">
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>NYC WEDNESDAY</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -775,73 +827,89 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>WHOLE FOODS UPPER WESTSIDE UWS</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>808 COLUMBUS AVE</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>2023-02-08</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>WHOLE FOODS</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>WHOLE FOOD</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>ALL</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>WHOLE FOODS UPPER WESTSIDE UWS</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>808 COLUMBUS AVE</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>10025</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>123051904</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>09:00 AM - 06:00 PM</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>CLOSED MONDAY - NO LUNCH</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>NYC N FRIDAY</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>DOCK 99TH &amp; COLUMBUS</t>
         </is>
@@ -875,69 +943,85 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>WHOLE FOODS NOMAD</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>63 MADISON AVE</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>2023-02-08</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>WHOLE FOODS</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>WHOLE FOOD</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>ALL</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>WHOLE FOODS NOMAD</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>63 MADISON AVE</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>10016</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>123053211</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>06:00 AM - 01:00 PM</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr">
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>NYC FRIDAY</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -967,69 +1051,85 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>WHOLE FOODS MONTCLAIR MNC</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>701 BLOOMFIELD AVE</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Montclair</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>2023-02-08</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>WHOLE FOODS</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>WHOLE FOOD</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>ALL</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>WHOLE FOODS MONTCLAIR MNC</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>701 BLOOMFIELD AVE</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
         <is>
           <t>Montclair</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>07042-</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>123053779</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>05:00 AM - 03:00 PM</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr">
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>MONTCLAIR TUESDAY</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1059,69 +1159,85 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>WHOLE FOODS INDUSTRY CITY</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3906 2ND AVE</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>2023-02-08</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>WHOLE FOODS</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>WHOLE FOOD</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>ALL</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>WHOLE FOODS INDUSTRY CITY</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>3906 2ND AVE</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
         <is>
           <t>Brooklyn</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>11232</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>123054112</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>06:00 AM - 02:00 PM</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr">
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>BROOKLYN FRIDAY</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1151,69 +1267,85 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>WHOLE FOODS BRYANT PARK</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1095 6TH AVE</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>2023-02-08</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>WHOLE FOODS</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>WHOLE FOOD</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>ALL</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>WHOLE FOODS BRYANT PARK</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>1095 6TH AVE</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>10036</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>123054994</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>06:00 AM - 02:00 PM</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr">
         <is>
           <t>NYC WEDNESDAY</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1243,69 +1375,85 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>WHOLE FOODS TRIBECA TRB</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>270 GREENWICH STREET</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>2023-02-08</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>WHOLE FOODS</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>WHOLE FOOD</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>ALL</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>WHOLE FOODS TRIBECA TRB</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>270 GREENWICH STREET</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr">
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>10007</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>123055725</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>04:00 AM - 02:00 PM</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr">
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>NYC FRIDAY</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>MURRAY STREET</t>
         </is>
@@ -1339,69 +1487,85 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>WHOLE FOODS MASSAPEQUA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>5214 SUNNRISE HWY</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Massapequa Park</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>2023-02-08</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>WHOLE FOODS</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>WHOLE FOOD</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>ALL</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>WHOLE FOODS MASSAPEQUA</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>5214 SUNNRISE HWY</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr">
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
         <is>
           <t>Massapequa Park</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>11762</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>123060724</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>09:00 AM - 03:00 PM</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr">
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>LI FRIDAY</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1431,73 +1595,93 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>WHOLE FOODS COMMACK</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>120 VETERANS MEMORIAL HIGHWAY</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>#34</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Commack</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>2023-02-08</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>WHOLE FOODS</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>WHOLE FOOD</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>ALL</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>WHOLE FOODS COMMACK</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>120 VETERANS MEMORIAL HIGHWAY</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>#34</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>Commack</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>11725</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>123061140</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>08:00 AM - 02:00 PM</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr">
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr">
         <is>
           <t>LI FRIDAY</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1527,77 +1711,97 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>WHOLE FOODS WOODCLIFF LAKE</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>500 CHESTNUT RIDGE RD</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>#10774</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Woodcliff Lake</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>2023-02-08</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>WHOLE FOODS</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>WHOLE FOOD</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>ALL</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>WHOLE FOODS WOODCLIFF LAKE</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>500 CHESTNUT RIDGE RD</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>#10774</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>Woodcliff Lake</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>07677-</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>123062865</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>06:00 AM - 01:30 PM</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>CLOSED MONDAY - NO LUNCH</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>ROCKLAND MONDAY</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
